--- a/TAQUARI.xlsx
+++ b/TAQUARI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E7BDCE4-2C8E-4BCD-9BA4-E235BCF7742D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{270C8B5C-5705-4AAA-A124-A461A2164E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1289,7 +1289,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{B7D3A971-DBD5-46D4-AC1B-EA63BE1824BF}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{AEC19959-C2EE-42EB-9D56-99908B25ED7C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1319,10 +1319,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C12ECB37-48E4-4D44-AA9F-FE073EF9FCB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C252CFD4-F0DC-4C94-BDEF-F2A250F57FC3}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1360,7 +1360,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F659A99D-DC75-4ACF-BA58-964D6574330C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F28AA022-DAED-48C0-A4C6-04A17E82DB24}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1423,7 +1423,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAFD8044-F34A-4ECC-B9B5-273391FA0DBC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D0E12BF-E52B-45A6-B475-C9E44099831B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1442,7 +1442,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{271DB805-6AB5-CA69-7F41-6C29BC17660B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ADAA596-0FDD-FF32-7489-4240738C1EBF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1491,7 +1491,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AFB8935-5AD2-9BAA-C102-DE5A4774FFAD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0B4D0CF-BADB-F46C-CBBF-3F6BFD785B67}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1510,7 +1510,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F98771B9-B505-C113-8A3D-0AD480D9F4A1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FD270B4-BD0C-30DF-93DF-FB52478D9D89}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1541,7 +1541,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC853236-E656-049B-2F37-0E80DFBFA62A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C7A4FF8-E4EE-DA28-C0D4-0A4B400495CF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1572,7 +1572,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74B3629F-E451-D5D7-D3F8-D904B8793C76}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C67A4FDD-7806-2247-7A9C-354B9A3E27F8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1615,7 +1615,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B78FED5-5613-4D55-80B4-323D6ACBF2B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6C8E02A-7865-4BEC-A315-0EC6F724F7F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1653,7 +1653,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{577C3652-FCC6-462A-A35B-8C66F05FCCB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D48F630-4C21-4A17-8380-B31FAB920D10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1696,7 +1696,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F1CA66B-7E64-4ACA-B805-5F65DDAF000E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4323A61C-D77C-4F59-8E61-F115F7A3BBA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2009,7 +2009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A492AB9-CB19-4D2A-905E-FBDCF4FABE57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D095100B-9DFA-4BA4-8452-BDD76EC16C65}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/TAQUARI.xlsx
+++ b/TAQUARI.xlsx
@@ -8,27 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{270C8B5C-5705-4AAA-A124-A461A2164E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39F0DDB7-01AE-4313-AC44-0F7900C3F0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="9" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="8" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="BENS-INTERINOS" sheetId="4" r:id="rId5"/>
     <sheet name="TABELIÕES-DOAÇÃO" sheetId="5" r:id="rId6"/>
     <sheet name="CPIP" sheetId="6" r:id="rId7"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="7" r:id="rId8"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="8" r:id="rId9"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="322">
   <si>
     <t>COMARCA</t>
   </si>
@@ -994,12 +993,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
   </si>
 </sst>
 </file>
@@ -1199,7 +1192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1269,27 +1262,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{AEC19959-C2EE-42EB-9D56-99908B25ED7C}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{8C5B2D92-6A00-4940-9541-E72A3C8B978E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1319,10 +1297,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C252CFD4-F0DC-4C94-BDEF-F2A250F57FC3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F6769EB-C5D4-43A9-8934-BA9F59DC7967}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1360,7 +1338,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F28AA022-DAED-48C0-A4C6-04A17E82DB24}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FB5C874-ED4C-422A-B4F3-AB9848B568B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1423,7 +1401,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D0E12BF-E52B-45A6-B475-C9E44099831B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F19B226E-0D49-4CC8-92A5-DB39F842F8EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1442,7 +1420,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ADAA596-0FDD-FF32-7489-4240738C1EBF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E06946A-0798-64FC-D9E3-E7EDD3D08A96}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1491,7 +1469,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0B4D0CF-BADB-F46C-CBBF-3F6BFD785B67}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAEADBBE-BB6C-E587-80EF-858E9BDEFAE0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1510,7 +1488,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FD270B4-BD0C-30DF-93DF-FB52478D9D89}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09C4BCF7-BFFF-22AD-C53A-0B81933F8AFA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1541,7 +1519,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C7A4FF8-E4EE-DA28-C0D4-0A4B400495CF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FB6C169-C276-2C44-5DA6-79F7678EFEBE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1572,7 +1550,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C67A4FDD-7806-2247-7A9C-354B9A3E27F8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF5781ED-C3F4-7A74-4DE2-F845206AB3A2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1615,7 +1593,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6C8E02A-7865-4BEC-A315-0EC6F724F7F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{070661B8-B2E5-4933-9440-39F9AA083E2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1653,7 +1631,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D48F630-4C21-4A17-8380-B31FAB920D10}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F42F0B26-3F7D-4800-A009-6B8EC5EBA079}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1696,7 +1674,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4323A61C-D77C-4F59-8E61-F115F7A3BBA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECDB228D-8F12-47A5-AEC8-A5581C0E6E74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2009,7 +1987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D095100B-9DFA-4BA4-8452-BDD76EC16C65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05E5A90-0AF6-448F-B5AC-E751395C5A35}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2021,98 +1999,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="37"/>
-    <col min="6" max="6" width="2" style="37" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="37" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="37"/>
+    <col min="1" max="5" width="12.5703125" style="32"/>
+    <col min="6" max="6" width="2" style="32" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="32" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="36"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="36"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="36"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="36"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="36"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="36"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="36"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="36"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="36"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="36"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="36"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="36"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="36"/>
+      <c r="F13" s="31"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="36"/>
+      <c r="F14" s="31"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="36"/>
+      <c r="F15" s="31"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="36"/>
+      <c r="F16" s="31"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="36"/>
+      <c r="F17" s="31"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="36"/>
+      <c r="F18" s="31"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="36"/>
+      <c r="F19" s="31"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="36"/>
+      <c r="F20" s="31"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="36"/>
+      <c r="F21" s="31"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="36"/>
+      <c r="F22" s="31"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="36"/>
+      <c r="F23" s="31"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="36"/>
+      <c r="F24" s="31"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="36"/>
+      <c r="F25" s="31"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="36"/>
+      <c r="F26" s="31"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="36"/>
+      <c r="F27" s="31"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="36"/>
+      <c r="F28" s="31"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="36"/>
+      <c r="F29" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5727,52 +5705,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>323</v>
-      </c>
-      <c r="E1" s="32">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="B2" s="35">
-        <v>12</v>
-      </c>
-      <c r="C2" s="33">
-        <v>7.9354582727152493E-4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/TAQUARI.xlsx
+++ b/TAQUARI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39F0DDB7-01AE-4313-AC44-0F7900C3F0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F8922C4-31B7-42E3-B63E-15D9875B981C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1267,7 +1267,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{8C5B2D92-6A00-4940-9541-E72A3C8B978E}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{6CD2E047-71CE-44CA-882B-85CFB74AED1C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1297,10 +1297,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F6769EB-C5D4-43A9-8934-BA9F59DC7967}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EA42471-026C-4C66-91FF-A3B7317A14A2}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1338,7 +1338,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FB5C874-ED4C-422A-B4F3-AB9848B568B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FF499C0-7F4C-454D-A86E-9E3FE2474330}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1401,7 +1401,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F19B226E-0D49-4CC8-92A5-DB39F842F8EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3EC2A4A-9F44-4A7D-B18D-0E67A4CFC27A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1420,7 +1420,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E06946A-0798-64FC-D9E3-E7EDD3D08A96}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{810DC5E4-2C10-C416-B503-35BAA9CB3F5D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1469,7 +1469,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAEADBBE-BB6C-E587-80EF-858E9BDEFAE0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{319A166A-7D53-E8BB-44D9-CEB1238E50F3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1488,7 +1488,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09C4BCF7-BFFF-22AD-C53A-0B81933F8AFA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D80268E9-6E40-2189-B7E5-2B1FF5B4EC4D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1519,7 +1519,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FB6C169-C276-2C44-5DA6-79F7678EFEBE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4F20522-55D2-75A9-8ED7-EA3C01133DA9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1550,7 +1550,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF5781ED-C3F4-7A74-4DE2-F845206AB3A2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1472D547-966F-426E-6699-E202E8866722}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1593,7 +1593,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{070661B8-B2E5-4933-9440-39F9AA083E2A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8DC46FD-DFEB-433B-B457-C553C56D4FA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1631,7 +1631,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F42F0B26-3F7D-4800-A009-6B8EC5EBA079}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B61004C-24F3-4275-A181-4B2F3D052E58}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1656,50 +1656,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECDB228D-8F12-47A5-AEC8-A5581C0E6E74}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1987,7 +1943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05E5A90-0AF6-448F-B5AC-E751395C5A35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCE91C5-9A4D-4FD6-B5CB-950C117B2F1E}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
